--- a/metrics/MAPE/average & upto/Macroalbuminuria.xlsx
+++ b/metrics/MAPE/average & upto/Macroalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6924414043820.661</v>
+        <v>9045462645111.566</v>
       </c>
       <c r="C3" t="n">
-        <v>6452753211654.764</v>
+        <v>6254699382870.136</v>
       </c>
       <c r="D3" t="n">
-        <v>6519397887219.701</v>
+        <v>6836943243128.654</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547383408390.848</v>
+        <v>8382137533810.913</v>
       </c>
       <c r="C4" t="n">
-        <v>8644479052364.397</v>
+        <v>8903149941477.535</v>
       </c>
       <c r="D4" t="n">
-        <v>8673812884772.318</v>
+        <v>8464088368069.264</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>658788980719673.4</v>
+        <v>545931389366186.8</v>
       </c>
       <c r="C5" t="n">
-        <v>597081118394671.1</v>
+        <v>697025235345071.6</v>
       </c>
       <c r="D5" t="n">
-        <v>567384918699254.2</v>
+        <v>517558610901238.6</v>
       </c>
     </row>
   </sheetData>
